--- a/doc/excel/统战/[sample_dpOm]其他统战人员信息录入样表.xlsx
+++ b/doc/excel/统战/[sample_dpOm]其他统战人员信息录入样表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559BB202-9FDD-44B6-930C-C3C3ECD7C91A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2160F6-D27A-418A-949D-22598DE47F71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="6015" windowWidth="28800" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,30 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016.4.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加工作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,18 +51,6 @@
   </si>
   <si>
     <t>副院长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕士学位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京xxx大学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,10 +59,6 @@
 2、标红字段必须填写完整。
 3、样表信息仅供参考，具体信息根据学校具体情况填写。
 4、导入数据前，请先删除注意事项。</t>
-  </si>
-  <si>
-    <t>所学专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,11 +141,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,8 +161,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,452 +479,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2"/>
+    <col min="1" max="1" width="14.375" style="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="5" width="15.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="2"/>
-    <col min="7" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>11112019060</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>11112019060</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
-      <c r="C4"/>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="C5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="C6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="C7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="C8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="C9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="C10"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="C11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="C12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="C13"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="C14"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="C15"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="C16"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="D4:I16"/>
+    <mergeCell ref="C4:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RR22:RR23 ABN22:ABN23 ALJ22:ALJ23 AVF22:AVF23 BFB22:BFB23 BOX22:BOX23 BYT22:BYT23 CIP22:CIP23 CSL22:CSL23 DCH22:DCH23 DMD22:DMD23 DVZ22:DVZ23 EFV22:EFV23 EPR22:EPR23 EZN22:EZN23 FJJ22:FJJ23 FTF22:FTF23 GDB22:GDB23 GMX22:GMX23 GWT22:GWT23 HGP22:HGP23 HQL22:HQL23 IAH22:IAH23 IKD22:IKD23 ITZ22:ITZ23 JDV22:JDV23 JNR22:JNR23 JXN22:JXN23 KHJ22:KHJ23 KRF22:KRF23 LBB22:LBB23 LKX22:LKX23 LUT22:LUT23 MEP22:MEP23 MOL22:MOL23 MYH22:MYH23 NID22:NID23 NRZ22:NRZ23 OBV22:OBV23 OLR22:OLR23 OVN22:OVN23 PFJ22:PFJ23 PPF22:PPF23 PZB22:PZB23 QIX22:QIX23 QST22:QST23 RCP22:RCP23 RML22:RML23 RWH22:RWH23 SGD22:SGD23 SPZ22:SPZ23 SZV22:SZV23 TJR22:TJR23 TTN22:TTN23 UDJ22:UDJ23 UNF22:UNF23 UXB22:UXB23 VGX22:VGX23 VQT22:VQT23 WAP22:WAP23 WKL22:WKL23 WUH22:WUH23 HV22:HV23 WKB7:WKB20 WAF7:WAF20 VQJ7:VQJ20 VGN7:VGN20 UWR7:UWR20 UMV7:UMV20 UCZ7:UCZ20 TTD7:TTD20 TJH7:TJH20 SZL7:SZL20 SPP7:SPP20 SFT7:SFT20 RVX7:RVX20 RMB7:RMB20 RCF7:RCF20 QSJ7:QSJ20 QIN7:QIN20 PYR7:PYR20 POV7:POV20 PEZ7:PEZ20 OVD7:OVD20 OLH7:OLH20 OBL7:OBL20 NRP7:NRP20 NHT7:NHT20 MXX7:MXX20 MOB7:MOB20 MEF7:MEF20 LUJ7:LUJ20 LKN7:LKN20 LAR7:LAR20 KQV7:KQV20 KGZ7:KGZ20 JXD7:JXD20 JNH7:JNH20 JDL7:JDL20 ITP7:ITP20 IJT7:IJT20 HZX7:HZX20 HQB7:HQB20 HGF7:HGF20 GWJ7:GWJ20 GMN7:GMN20 GCR7:GCR20 FSV7:FSV20 FIZ7:FIZ20 EZD7:EZD20 EPH7:EPH20 EFL7:EFL20 DVP7:DVP20 DLT7:DLT20 DBX7:DBX20 CSB7:CSB20 CIF7:CIF20 BYJ7:BYJ20 BON7:BON20 BER7:BER20 AUV7:AUV20 AKZ7:AKZ20 ABD7:ABD20 RH7:RH20 HL7:HL20 WTX7:WTX20 WUC6 HQ6 RM6 ABI6 ALE6 AVA6 BEW6 BOS6 BYO6 CIK6 CSG6 DCC6 DLY6 DVU6 EFQ6 EPM6 EZI6 FJE6 FTA6 GCW6 GMS6 GWO6 HGK6 HQG6 IAC6 IJY6 ITU6 JDQ6 JNM6 JXI6 KHE6 KRA6 LAW6 LKS6 LUO6 MEK6 MOG6 MYC6 NHY6 NRU6 OBQ6 OLM6 OVI6 PFE6 PPA6 PYW6 QIS6 QSO6 RCK6 RMG6 RWC6 SFY6 SPU6 SZQ6 TJM6 TTI6 UDE6 UNA6 UWW6 VGS6 VQO6 WAK6 WKG6 WKK2 WKL3:WKL5 WAO2 WAP3:WAP5 VQS2 VQT3:VQT5 VGW2 VGX3:VGX5 UXA2 UXB3:UXB5 UNE2 UNF3:UNF5 UDI2 UDJ3:UDJ5 TTM2 TTN3:TTN5 TJQ2 TJR3:TJR5 SZU2 SZV3:SZV5 SPY2 SPZ3:SPZ5 SGC2 SGD3:SGD5 RWG2 RWH3:RWH5 RMK2 RML3:RML5 RCO2 RCP3:RCP5 QSS2 QST3:QST5 QIW2 QIX3:QIX5 PZA2 PZB3:PZB5 PPE2 PPF3:PPF5 PFI2 PFJ3:PFJ5 OVM2 OVN3:OVN5 OLQ2 OLR3:OLR5 OBU2 OBV3:OBV5 NRY2 NRZ3:NRZ5 NIC2 NID3:NID5 MYG2 MYH3:MYH5 MOK2 MOL3:MOL5 MEO2 MEP3:MEP5 LUS2 LUT3:LUT5 LKW2 LKX3:LKX5 LBA2 LBB3:LBB5 KRE2 KRF3:KRF5 KHI2 KHJ3:KHJ5 JXM2 JXN3:JXN5 JNQ2 JNR3:JNR5 JDU2 JDV3:JDV5 ITY2 ITZ3:ITZ5 IKC2 IKD3:IKD5 IAG2 IAH3:IAH5 HQK2 HQL3:HQL5 HGO2 HGP3:HGP5 GWS2 GWT3:GWT5 GMW2 GMX3:GMX5 GDA2 GDB3:GDB5 FTE2 FTF3:FTF5 FJI2 FJJ3:FJJ5 EZM2 EZN3:EZN5 EPQ2 EPR3:EPR5 EFU2 EFV3:EFV5 DVY2 DVZ3:DVZ5 DMC2 DMD3:DMD5 DCG2 DCH3:DCH5 CSK2 CSL3:CSL5 CIO2 CIP3:CIP5 BYS2 BYT3:BYT5 BOW2 BOX3:BOX5 BFA2 BFB3:BFB5 AVE2 AVF3:AVF5 ALI2 ALJ3:ALJ5 ABM2 ABN3:ABN5 RQ2 RR3:RR5 HU2 HV3:HV5 WUG2 WUH3:WUH5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="RM22:RM23 ABI22:ABI23 ALE22:ALE23 AVA22:AVA23 BEW22:BEW23 BOS22:BOS23 BYO22:BYO23 CIK22:CIK23 CSG22:CSG23 DCC22:DCC23 DLY22:DLY23 DVU22:DVU23 EFQ22:EFQ23 EPM22:EPM23 EZI22:EZI23 FJE22:FJE23 FTA22:FTA23 GCW22:GCW23 GMS22:GMS23 GWO22:GWO23 HGK22:HGK23 HQG22:HQG23 IAC22:IAC23 IJY22:IJY23 ITU22:ITU23 JDQ22:JDQ23 JNM22:JNM23 JXI22:JXI23 KHE22:KHE23 KRA22:KRA23 LAW22:LAW23 LKS22:LKS23 LUO22:LUO23 MEK22:MEK23 MOG22:MOG23 MYC22:MYC23 NHY22:NHY23 NRU22:NRU23 OBQ22:OBQ23 OLM22:OLM23 OVI22:OVI23 PFE22:PFE23 PPA22:PPA23 PYW22:PYW23 QIS22:QIS23 QSO22:QSO23 RCK22:RCK23 RMG22:RMG23 RWC22:RWC23 SFY22:SFY23 SPU22:SPU23 SZQ22:SZQ23 TJM22:TJM23 TTI22:TTI23 UDE22:UDE23 UNA22:UNA23 UWW22:UWW23 VGS22:VGS23 VQO22:VQO23 WAK22:WAK23 WKG22:WKG23 WUC22:WUC23 HQ22:HQ23 WJW7:WJW20 WAA7:WAA20 VQE7:VQE20 VGI7:VGI20 UWM7:UWM20 UMQ7:UMQ20 UCU7:UCU20 TSY7:TSY20 TJC7:TJC20 SZG7:SZG20 SPK7:SPK20 SFO7:SFO20 RVS7:RVS20 RLW7:RLW20 RCA7:RCA20 QSE7:QSE20 QII7:QII20 PYM7:PYM20 POQ7:POQ20 PEU7:PEU20 OUY7:OUY20 OLC7:OLC20 OBG7:OBG20 NRK7:NRK20 NHO7:NHO20 MXS7:MXS20 MNW7:MNW20 MEA7:MEA20 LUE7:LUE20 LKI7:LKI20 LAM7:LAM20 KQQ7:KQQ20 KGU7:KGU20 JWY7:JWY20 JNC7:JNC20 JDG7:JDG20 ITK7:ITK20 IJO7:IJO20 HZS7:HZS20 HPW7:HPW20 HGA7:HGA20 GWE7:GWE20 GMI7:GMI20 GCM7:GCM20 FSQ7:FSQ20 FIU7:FIU20 EYY7:EYY20 EPC7:EPC20 EFG7:EFG20 DVK7:DVK20 DLO7:DLO20 DBS7:DBS20 CRW7:CRW20 CIA7:CIA20 BYE7:BYE20 BOI7:BOI20 BEM7:BEM20 AUQ7:AUQ20 AKU7:AKU20 AAY7:AAY20 RC7:RC20 HG7:HG20 WTS7:WTS20 WTX6 HL6 RH6 ABD6 AKZ6 AUV6 BER6 BON6 BYJ6 CIF6 CSB6 DBX6 DLT6 DVP6 EFL6 EPH6 EZD6 FIZ6 FSV6 GCR6 GMN6 GWJ6 HGF6 HQB6 HZX6 IJT6 ITP6 JDL6 JNH6 JXD6 KGZ6 KQV6 LAR6 LKN6 LUJ6 MEF6 MOB6 MXX6 NHT6 NRP6 OBL6 OLH6 OVD6 PEZ6 POV6 PYR6 QIN6 QSJ6 RCF6 RMB6 RVX6 SFT6 SPP6 SZL6 TJH6 TTD6 UCZ6 UMV6 UWR6 VGN6 VQJ6 WAF6 WKB6 WKF2 WKG3:WKG5 WAJ2 WAK3:WAK5 VQN2 VQO3:VQO5 VGR2 VGS3:VGS5 UWV2 UWW3:UWW5 UMZ2 UNA3:UNA5 UDD2 UDE3:UDE5 TTH2 TTI3:TTI5 TJL2 TJM3:TJM5 SZP2 SZQ3:SZQ5 SPT2 SPU3:SPU5 SFX2 SFY3:SFY5 RWB2 RWC3:RWC5 RMF2 RMG3:RMG5 RCJ2 RCK3:RCK5 QSN2 QSO3:QSO5 QIR2 QIS3:QIS5 PYV2 PYW3:PYW5 POZ2 PPA3:PPA5 PFD2 PFE3:PFE5 OVH2 OVI3:OVI5 OLL2 OLM3:OLM5 OBP2 OBQ3:OBQ5 NRT2 NRU3:NRU5 NHX2 NHY3:NHY5 MYB2 MYC3:MYC5 MOF2 MOG3:MOG5 MEJ2 MEK3:MEK5 LUN2 LUO3:LUO5 LKR2 LKS3:LKS5 LAV2 LAW3:LAW5 KQZ2 KRA3:KRA5 KHD2 KHE3:KHE5 JXH2 JXI3:JXI5 JNL2 JNM3:JNM5 JDP2 JDQ3:JDQ5 ITT2 ITU3:ITU5 IJX2 IJY3:IJY5 IAB2 IAC3:IAC5 HQF2 HQG3:HQG5 HGJ2 HGK3:HGK5 GWN2 GWO3:GWO5 GMR2 GMS3:GMS5 GCV2 GCW3:GCW5 FSZ2 FTA3:FTA5 FJD2 FJE3:FJE5 EZH2 EZI3:EZI5 EPL2 EPM3:EPM5 EFP2 EFQ3:EFQ5 DVT2 DVU3:DVU5 DLX2 DLY3:DLY5 DCB2 DCC3:DCC5 CSF2 CSG3:CSG5 CIJ2 CIK3:CIK5 BYN2 BYO3:BYO5 BOR2 BOS3:BOS5 BEV2 BEW3:BEW5 AUZ2 AVA3:AVA5 ALD2 ALE3:ALE5 ABH2 ABI3:ABI5 RL2 RM3:RM5 HP2 HQ3:HQ5 WUB2 WUC3:WUC5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"申请入党人员,入党积极分子,发展对象"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{912F32E4-C645-4B18-8A54-E88F8EA1D806}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D18:D1048576" xr:uid="{912F32E4-C645-4B18-8A54-E88F8EA1D806}">
       <formula1>"华侨、归侨及侨眷,欧美同学会会员,知联会员"</formula1>
     </dataValidation>
   </dataValidations>
